--- a/data/examples/webdev/datafile.xlsx
+++ b/data/examples/webdev/datafile.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DC889-641A-604E-9034-6ED86752B5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F85B28-5783-FD4A-908D-1C9CCE019B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="webdev-home" sheetId="1" r:id="rId1"/>
-    <sheet name="webdev-mishipay" sheetId="2" r:id="rId2"/>
+    <sheet name="webdev-home-mishipay" sheetId="1" r:id="rId1"/>
+    <sheet name="webdev-mishipay-hero" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,6 +94,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">

--- a/data/examples/webdev/datafile.xlsx
+++ b/data/examples/webdev/datafile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F85B28-5783-FD4A-908D-1C9CCE019B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205429F0-69A1-8E46-BDD6-28A62EB5993C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +94,23 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,13 +151,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,26 +647,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20" style="5" customWidth="1"/>
-    <col min="13" max="14" width="22" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -692,930 +718,930 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>0.13900000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>375</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>309</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>82</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <v>964</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <f t="shared" ref="G2:G17" si="0">F2/D2</f>
         <v>3.1197411003236244</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="9">
         <f t="shared" ref="H2:H17" si="1">G2/MIN(2,C2)</f>
         <v>1.5598705501618122</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="7" t="str">
         <f t="shared" ref="I2:I17" si="2">_xlfn.IFS(    H2&lt;0.9, "POOR (--)",     H2&lt;1, "(-)",     H2=1, "GOOD!",     H2&gt;1.2, "BIG (++)",     H2&gt;1, "(+)"  )</f>
         <v>BIG (++)</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="6">
         <f t="shared" ref="J2:J17" si="3">(H2-1)*A2</f>
         <v>7.7822006472491906E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="10">
         <v>618</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="11">
         <v>692</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="9">
         <f t="shared" ref="M2:M17" si="4">L2/D2</f>
         <v>2.2394822006472492</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="9">
         <f t="shared" ref="N2:N17" si="5">M2/MIN(2,C2)</f>
         <v>1.1197411003236246</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="7" t="str">
         <f t="shared" ref="O2:O17" si="6">_xlfn.IFS(    N2&lt;0.9, "POOR (--)",     N2&lt;1, "(-)",     N2=1, "GOOD!",     N2&gt;1.2, "BIG (++)",     N2&gt;1, "(+)"  )</f>
         <v>(+)</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="6">
         <f t="shared" ref="P2:P17" si="7">(N2-1)*A2</f>
         <v>1.6644012944983824E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>0.13400000000000001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>414</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>346</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>83</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="8">
         <v>741</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <f t="shared" si="0"/>
         <v>2.1416184971098264</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="9">
         <f t="shared" si="1"/>
         <v>1.0708092485549132</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J3" s="6">
         <f t="shared" si="3"/>
         <v>9.4884393063583723E-3</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="10">
         <v>692</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="11">
         <v>692</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O3" t="str">
+      <c r="O3" s="7" t="str">
         <f t="shared" si="6"/>
         <v>GOOD!</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>390</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>323</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>82</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>964</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>2.9845201238390091</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="9">
         <f t="shared" si="1"/>
         <v>1.4922600619195046</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="7" t="str">
         <f t="shared" si="2"/>
         <v>BIG (++)</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <f t="shared" si="3"/>
         <v>4.676470588235293E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="10">
         <v>646</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="11">
         <v>692</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="9">
         <f t="shared" si="4"/>
         <v>2.1424148606811144</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="9">
         <f t="shared" si="5"/>
         <v>1.0712074303405572</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="O4" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P4" s="6">
         <f t="shared" si="7"/>
         <v>6.7647058823529348E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>375</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>309</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>82</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>650</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>2.1035598705501619</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
         <v>1.051779935275081</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="3"/>
         <v>4.4530744336569623E-3</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="10">
         <v>618</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="11">
         <v>692</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="9">
         <f t="shared" si="4"/>
         <v>2.2394822006472492</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="9">
         <f t="shared" si="5"/>
         <v>1.1197411003236246</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="O5" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" si="7"/>
         <v>1.0297734627831717E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>414</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>346</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>83</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8">
         <v>1098</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>3.1734104046242773</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
         <v>1.5867052023121386</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="7" t="str">
         <f t="shared" si="2"/>
         <v>BIG (++)</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <f t="shared" si="3"/>
         <v>4.8696531791907506E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="10">
         <v>692</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="11">
         <v>692</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O6" t="str">
+      <c r="O6" s="7" t="str">
         <f t="shared" si="6"/>
         <v>GOOD!</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>360</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>295</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>81</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="8">
         <v>964</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>3.2677966101694915</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
         <v>1.6338983050847458</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="7" t="str">
         <f t="shared" si="2"/>
         <v>BIG (++)</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="6">
         <f t="shared" si="3"/>
         <v>3.8667796610169489E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="10">
         <v>590</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="11">
         <v>692</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="9">
         <f t="shared" si="4"/>
         <v>2.3457627118644067</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="9">
         <f t="shared" si="5"/>
         <v>1.1728813559322033</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="O7" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" si="7"/>
         <v>1.0545762711864403E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>428</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>359</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>83</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
         <v>1140</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>3.1754874651810585</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
         <v>1.5877437325905293</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="7" t="str">
         <f t="shared" si="2"/>
         <v>BIG (++)</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <f t="shared" si="3"/>
         <v>3.0562674094707521E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="10">
         <v>718</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="11">
         <v>692</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <f t="shared" si="4"/>
         <v>1.9275766016713092</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="9">
         <f t="shared" si="5"/>
         <v>0.96378830083565459</v>
       </c>
-      <c r="O8" t="str">
+      <c r="O8" s="7" t="str">
         <f t="shared" si="6"/>
         <v>(-)</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="6">
         <f t="shared" si="7"/>
         <v>-1.8830083565459614E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>1920</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>558</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>29</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="8">
         <v>571</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>1.0232974910394266</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <f t="shared" si="1"/>
         <v>1.0232974910394266</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="3"/>
         <v>9.551971326164897E-4</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="10">
         <v>558</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="11">
         <v>558</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O9" t="str">
+      <c r="O9" s="7" t="str">
         <f t="shared" si="6"/>
         <v>GOOD!</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>412</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>2.63</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>344</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>83</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="8">
         <v>964</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>2.8023255813953489</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <f t="shared" si="1"/>
         <v>1.4011627906976745</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="7" t="str">
         <f t="shared" si="2"/>
         <v>BIG (++)</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <f t="shared" si="3"/>
         <v>1.4843023255813954E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="10">
         <v>688</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="11">
         <v>692</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="9">
         <f t="shared" si="4"/>
         <v>2.0116279069767442</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="9">
         <f t="shared" si="5"/>
         <v>1.0058139534883721</v>
       </c>
-      <c r="O10" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="O10" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" si="7"/>
         <v>2.1511627906976782E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>1440</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>558</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>38</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="8">
         <v>1140</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>2.043010752688172</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
         <v>1.021505376344086</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="3"/>
         <v>4.94623655913978E-4</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="10">
         <v>1116</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="11">
         <v>1116</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O11" t="str">
+      <c r="O11" s="7" t="str">
         <f t="shared" si="6"/>
         <v>GOOD!</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>1366</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>558</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>40</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <v>571</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>1.0232974910394266</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="9">
         <f t="shared" si="1"/>
         <v>1.0232974910394266</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="3"/>
         <v>4.1935483870967835E-4</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="10">
         <v>558</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="11">
         <v>558</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O12" t="str">
+      <c r="O12" s="7" t="str">
         <f t="shared" si="6"/>
         <v>GOOD!</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>360</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>295</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>81</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="8">
         <v>650</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>2.2033898305084745</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>1.1016949152542372</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="3"/>
         <v>1.6271186440677959E-3</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="10">
         <v>590</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="11">
         <v>692</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="9">
         <f t="shared" si="4"/>
         <v>2.3457627118644067</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="9">
         <f t="shared" si="5"/>
         <v>1.1728813559322033</v>
       </c>
-      <c r="O13" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="O13" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" si="7"/>
         <v>2.7661016949152534E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>768</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>558</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>72</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="8">
         <v>1140</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>2.043010752688172</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="9">
         <f t="shared" si="1"/>
         <v>1.021505376344086</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="3"/>
         <v>3.2258064516129E-4</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="10">
         <v>1116</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="11">
         <v>1116</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O14" t="str">
+      <c r="O14" s="7" t="str">
         <f t="shared" si="6"/>
         <v>GOOD!</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>393</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>2.75</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>326</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>82</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="8">
         <v>964</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>2.9570552147239262</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="9">
         <f t="shared" si="1"/>
         <v>1.4785276073619631</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="7" t="str">
         <f t="shared" si="2"/>
         <v>BIG (++)</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="6">
         <f t="shared" si="3"/>
         <v>6.6993865030674834E-3</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="10">
         <v>652</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="11">
         <v>692</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="9">
         <f t="shared" si="4"/>
         <v>2.1226993865030677</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="9">
         <f t="shared" si="5"/>
         <v>1.0613496932515338</v>
       </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="O15" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P15" s="6">
         <f t="shared" si="7"/>
         <v>8.5889570552147364E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>1536</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>1.25</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>558</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>36</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="8">
         <v>741</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>1.3279569892473118</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="9">
         <f t="shared" si="1"/>
         <v>1.0623655913978494</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="3"/>
         <v>6.8602150537634297E-4</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="10">
         <v>698</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="11">
         <v>692</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="9">
         <f t="shared" si="4"/>
         <v>1.2401433691756272</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="9">
         <f t="shared" si="5"/>
         <v>0.99211469534050178</v>
       </c>
-      <c r="O16" t="str">
+      <c r="O16" s="7" t="str">
         <f t="shared" si="6"/>
         <v>(-)</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="6">
         <f t="shared" si="7"/>
         <v>-8.6738351254480372E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:16" s="7" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>320</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>258</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>80</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="8">
         <v>571</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>2.2131782945736433</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="9">
         <f t="shared" si="1"/>
         <v>1.1065891472868217</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="3"/>
         <v>8.5271317829457339E-4</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="10">
         <v>516</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="11">
         <v>558</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="9">
         <f t="shared" si="4"/>
         <v>2.1627906976744184</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="9">
         <f t="shared" si="5"/>
         <v>1.0813953488372092</v>
       </c>
-      <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="O17" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P17" s="6">
         <f t="shared" si="7"/>
         <v>6.5116279069767384E-4</v>
       </c>
@@ -1658,26 +1684,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20" style="5" customWidth="1"/>
-    <col min="13" max="14" width="22" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1730,930 +1757,930 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>0.13900000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="13">
         <v>375</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="13">
         <v>375</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="13">
         <v>100</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="14">
         <v>1098</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="15">
         <f t="shared" ref="G2:G17" si="0">F2/D2</f>
         <v>2.9279999999999999</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="15">
         <f t="shared" ref="H2:H17" si="1">G2/MIN(3,C2)</f>
         <v>0.97599999999999998</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="13" t="str">
         <f t="shared" ref="I2:I17" si="2">_xlfn.IFS(    H2&lt;0.9, "POOR (--)",     H2&lt;1, "(-)",     H2=1, "GOOD!",     H2&gt;1.2, "BIG (++)",     H2&gt;1, "(+)"  )</f>
         <v>(-)</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="12">
         <f t="shared" ref="J2:J17" si="3">(H2-1)*A2</f>
         <v>-3.3360000000000035E-3</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="16">
         <v>1125</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="11">
         <v>1242</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="15">
         <f t="shared" ref="M2:M17" si="4">L2/D2</f>
         <v>3.3119999999999998</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="15">
         <f t="shared" ref="N2:N17" si="5">M2/MIN(3,C2)</f>
         <v>1.1039999999999999</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="13" t="str">
         <f t="shared" ref="O2:O17" si="6">_xlfn.IFS(    N2&lt;0.9, "POOR (--)",     N2&lt;1, "(-)",     N2=1, "GOOD!",     N2&gt;1.2, "BIG (++)",     N2&gt;1, "(+)"  )</f>
         <v>(+)</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="12">
         <f t="shared" ref="P2:P17" si="7">(N2-1)*A2</f>
         <v>1.4455999999999983E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>0.13400000000000001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <v>414</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>414</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="13">
         <v>100</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="14">
         <v>845</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="15">
         <f t="shared" si="0"/>
         <v>2.0410628019323673</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="15">
         <f t="shared" si="1"/>
         <v>1.0205314009661837</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J3" s="12">
         <f t="shared" si="3"/>
         <v>2.7512077294686113E-3</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="16">
         <v>828</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="11">
         <v>828</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="15">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="15">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O3" t="str">
+      <c r="O3" s="13" t="str">
         <f t="shared" si="6"/>
         <v>GOOD!</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>390</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="13">
         <v>390</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="13">
         <v>100</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="14">
         <v>1098</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>2.8153846153846156</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="15">
         <f t="shared" si="1"/>
         <v>0.93846153846153857</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="13" t="str">
         <f t="shared" si="2"/>
         <v>(-)</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="12">
         <f t="shared" si="3"/>
         <v>-5.846153846153836E-3</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="16">
         <v>1170</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="11">
         <v>1242</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="15">
         <f t="shared" si="4"/>
         <v>3.1846153846153844</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="15">
         <f t="shared" si="5"/>
         <v>1.0615384615384615</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="O4" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P4" s="12">
         <f t="shared" si="7"/>
         <v>5.8461538461538464E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>375</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="13">
         <v>375</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="13">
         <v>100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="14">
         <v>741</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="15">
         <f t="shared" si="0"/>
         <v>1.976</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="15">
         <f t="shared" si="1"/>
         <v>0.98799999999999999</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="13" t="str">
         <f t="shared" si="2"/>
         <v>(-)</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="12">
         <f t="shared" si="3"/>
         <v>-1.0320000000000008E-3</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="16">
         <v>750</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="11">
         <v>828</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="15">
         <f t="shared" si="4"/>
         <v>2.2080000000000002</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="15">
         <f t="shared" si="5"/>
         <v>1.1040000000000001</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="O5" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P5" s="12">
         <f t="shared" si="7"/>
         <v>8.9440000000000075E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>414</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>414</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="13">
         <v>100</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="14">
         <v>1252</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>3.0241545893719808</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="15">
         <f t="shared" si="1"/>
         <v>1.0080515297906603</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J6" s="12">
         <f t="shared" si="3"/>
         <v>6.6827697262480175E-4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="16">
         <v>1242</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="11">
         <v>1242</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="15">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="15">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O6" t="str">
+      <c r="O6" s="13" t="str">
         <f t="shared" si="6"/>
         <v>GOOD!</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="13">
         <v>360</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="13">
         <v>360</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="13">
         <v>100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="14">
         <v>1098</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>3.05</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="15">
         <f t="shared" si="1"/>
         <v>1.0166666666666666</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J7" s="12">
         <f t="shared" si="3"/>
         <v>1.0166666666666631E-3</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="16">
         <v>1080</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="11">
         <v>1242</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="15">
         <f t="shared" si="4"/>
         <v>3.45</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="15">
         <f t="shared" si="5"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="O7" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P7" s="12">
         <f t="shared" si="7"/>
         <v>9.1500000000000071E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>428</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="13">
         <v>428</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="13">
         <v>100</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="14">
         <v>1252</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>2.9252336448598131</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="15">
         <f t="shared" si="1"/>
         <v>0.97507788161993769</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="13" t="str">
         <f t="shared" si="2"/>
         <v>(-)</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="12">
         <f t="shared" si="3"/>
         <v>-1.2959501557632399E-3</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="16">
         <v>1284</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="11">
         <v>1242</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="15">
         <f t="shared" si="4"/>
         <v>2.9018691588785046</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="15">
         <f t="shared" si="5"/>
         <v>0.96728971962616817</v>
       </c>
-      <c r="O8" t="str">
+      <c r="O8" s="13" t="str">
         <f t="shared" si="6"/>
         <v>(-)</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="12">
         <f t="shared" si="7"/>
         <v>-1.7009345794392553E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="13">
         <v>1920</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="13">
         <v>1600</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="13">
         <v>83</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="14">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="13" t="str">
         <f t="shared" si="2"/>
         <v>GOOD!</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="16">
         <v>1600</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="11">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="15">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="15">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O9" t="str">
+      <c r="O9" s="13" t="str">
         <f t="shared" si="6"/>
         <v>GOOD!</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="13">
         <v>412</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="13">
         <v>2.63</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="13">
         <v>412</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="13">
         <v>100</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="14">
         <v>1098</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="15">
         <f t="shared" si="0"/>
         <v>2.6650485436893203</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
         <v>1.0133264424674222</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J10" s="12">
         <f t="shared" si="3"/>
         <v>4.9307837129462155E-4</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="16">
         <v>1084</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="11">
         <v>1242</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="15">
         <f t="shared" si="4"/>
         <v>3.0145631067961167</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="15">
         <f t="shared" si="5"/>
         <v>1.1462217136106909</v>
       </c>
-      <c r="O10" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="O10" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P10" s="12">
         <f t="shared" si="7"/>
         <v>5.4102034035955638E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>2.3E-2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="13">
         <v>1440</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="13">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="13">
         <v>1440</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="13">
         <v>100</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="14">
         <v>1600</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="15">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="13" t="str">
         <f t="shared" si="2"/>
         <v>POOR (--)</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="12">
         <f t="shared" si="3"/>
         <v>-1.0222222222222221E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="16">
         <v>2880</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="11">
+        <v>2880</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>GOOD!</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1366</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1366</v>
+      </c>
+      <c r="E12" s="13">
+        <v>100</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1428</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0453879941434847</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0453879941434847</v>
+      </c>
+      <c r="I12" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="3"/>
+        <v>8.169838945827247E-4</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1366</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1600</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="4"/>
+        <v>1.171303074670571</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="5"/>
+        <v>1.171303074670571</v>
+      </c>
+      <c r="O12" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="7"/>
+        <v>3.0834553440702785E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="B13" s="13">
+        <v>360</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>360</v>
+      </c>
+      <c r="E13" s="13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="14">
+        <v>741</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="0"/>
+        <v>2.0583333333333331</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0291666666666666</v>
+      </c>
+      <c r="I13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="3"/>
+        <v>4.6666666666666504E-4</v>
+      </c>
+      <c r="K13" s="16">
+        <v>720</v>
+      </c>
+      <c r="L13" s="11">
+        <v>828</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="4"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="5"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O13" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="7"/>
+        <v>2.3999999999999985E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B14" s="13">
+        <v>768</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>768</v>
+      </c>
+      <c r="E14" s="13">
+        <v>100</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1600</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="I14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="3"/>
+        <v>6.250000000000011E-4</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1536</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1600</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="4"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="5"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="O14" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="7"/>
+        <v>6.250000000000011E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="B15" s="13">
+        <v>393</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2.75</v>
+      </c>
+      <c r="D15" s="13">
+        <v>393</v>
+      </c>
+      <c r="E15" s="13">
+        <v>100</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1098</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="0"/>
+        <v>2.7938931297709924</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0159611380985427</v>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="3"/>
+        <v>2.2345593337959801E-4</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1081</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1242</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="4"/>
+        <v>3.1603053435114505</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="5"/>
+        <v>1.1492019430950728</v>
+      </c>
+      <c r="O15" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>(+)</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="7"/>
+        <v>2.0888272033310197E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1536</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1536</v>
+      </c>
+      <c r="E16" s="13">
+        <v>100</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1600</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>POOR (--)</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="3"/>
+        <v>-1.8333333333333329E-3</v>
+      </c>
+      <c r="K16" s="16">
         <v>1920</v>
       </c>
-      <c r="M11" s="3">
-        <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="6"/>
-        <v>POOR (--)</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="7"/>
-        <v>-7.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="B12">
-        <v>1366</v>
-      </c>
-      <c r="C12">
+      <c r="L16" s="11">
+        <v>1920</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1366</v>
-      </c>
-      <c r="E12">
+      <c r="O16" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>GOOD!</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B17" s="13">
+        <v>320</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13">
+        <v>320</v>
+      </c>
+      <c r="E17" s="13">
         <v>100</v>
       </c>
-      <c r="F12" s="2">
-        <v>1428</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0453879941434847</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0453879941434847</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="3"/>
-        <v>8.169838945827247E-4</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1366</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1600</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="4"/>
-        <v>1.171303074670571</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="5"/>
-        <v>1.171303074670571</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="7"/>
-        <v>3.0834553440702785E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="B13">
-        <v>360</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>360</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13" s="2">
-        <v>741</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0583333333333331</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0291666666666666</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="3"/>
-        <v>4.6666666666666504E-4</v>
-      </c>
-      <c r="K13" s="4">
-        <v>720</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="F17" s="14">
+        <v>650</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="0"/>
+        <v>2.03125</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="1"/>
+        <v>1.015625</v>
+      </c>
+      <c r="I17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>(+)</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="3"/>
+        <v>1.25E-4</v>
+      </c>
+      <c r="K17" s="16">
+        <v>640</v>
+      </c>
+      <c r="L17" s="11">
         <v>828</v>
       </c>
-      <c r="M13" s="3">
-        <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="7"/>
-        <v>2.3999999999999985E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="B14">
-        <v>768</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>768</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1600</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="3"/>
-        <v>6.250000000000011E-4</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1536</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1600</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="4"/>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="7"/>
-        <v>6.250000000000011E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="B15">
-        <v>393</v>
-      </c>
-      <c r="C15">
-        <v>2.75</v>
-      </c>
-      <c r="D15">
-        <v>393</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1098</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7938931297709924</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0159611380985427</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2345593337959801E-4</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1081</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1242</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1603053435114505</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1492019430950728</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="7"/>
-        <v>2.0888272033310197E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="B16">
-        <v>1536</v>
-      </c>
-      <c r="C16">
-        <v>1.25</v>
-      </c>
-      <c r="D16">
-        <v>1536</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1600</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>POOR (--)</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.8333333333333329E-3</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1920</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1920</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="4"/>
-        <v>1.25</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="B17">
-        <v>320</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>320</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17" s="2">
-        <v>650</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>2.03125</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="1"/>
-        <v>1.015625</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="3"/>
-        <v>1.25E-4</v>
-      </c>
-      <c r="K17" s="4">
-        <v>640</v>
-      </c>
-      <c r="L17" s="5">
-        <v>828</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="15">
         <f t="shared" si="4"/>
         <v>2.5874999999999999</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="15">
         <f t="shared" si="5"/>
         <v>1.29375</v>
       </c>
-      <c r="O17" t="str">
+      <c r="O17" s="13" t="str">
         <f t="shared" si="6"/>
         <v>BIG (++)</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="12">
         <f t="shared" si="7"/>
         <v>2.3499999999999997E-3</v>
       </c>
